--- a/Sheep Hay Calculator.xlsx
+++ b/Sheep Hay Calculator.xlsx
@@ -164,7 +164,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,12 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -418,7 +424,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -445,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +768,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -772,21 +778,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -797,20 +803,20 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.04</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>40</v>
       </c>
       <c r="D7" s="3"/>
@@ -823,19 +829,19 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4">
@@ -844,12 +850,12 @@
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5">
@@ -860,13 +866,13 @@
         <f t="shared" si="0"/>
         <v>60.199999999999996</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>60.199999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
@@ -875,12 +881,12 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4">
@@ -889,13 +895,13 @@
       <c r="D13" s="4">
         <v>140</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>40</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5">
@@ -906,14 +912,14 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6">
@@ -924,13 +930,13 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7">
@@ -941,19 +947,19 @@
         <f t="shared" si="3"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7">
@@ -964,29 +970,29 @@
         <f t="shared" si="4"/>
         <v>10.534999999999998</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f t="shared" si="4"/>
         <v>15.049999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="34">
         <v>0.2</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="7">
@@ -994,40 +1000,40 @@
         <v>144.47999999999999</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>50</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <f>C21-C23</f>
         <v>94.47999999999999</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
